--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>206.8366664962778</v>
+        <v>253.2017123615249</v>
       </c>
       <c r="R2">
-        <v>1861.5299984665</v>
+        <v>2278.815411253725</v>
       </c>
       <c r="S2">
-        <v>0.01329863143612659</v>
+        <v>0.04224352899583408</v>
       </c>
       <c r="T2">
-        <v>0.01329863143612659</v>
+        <v>0.04224352899583407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>86.18391655253333</v>
+        <v>114.10713772416</v>
       </c>
       <c r="R3">
-        <v>775.6552489728</v>
+        <v>1026.96423951744</v>
       </c>
       <c r="S3">
-        <v>0.005541223233621664</v>
+        <v>0.01903734432174657</v>
       </c>
       <c r="T3">
-        <v>0.005541223233621666</v>
+        <v>0.01903734432174657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>7.174431142988889</v>
+        <v>23.549668903935</v>
       </c>
       <c r="R4">
-        <v>64.5698802869</v>
+        <v>211.947020135415</v>
       </c>
       <c r="S4">
-        <v>0.0004612824077601088</v>
+        <v>0.003928966798475876</v>
       </c>
       <c r="T4">
-        <v>0.0004612824077601088</v>
+        <v>0.003928966798475876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>8.313347615055555</v>
+        <v>15.283711186695</v>
       </c>
       <c r="R5">
-        <v>74.8201285355</v>
+        <v>137.553400680255</v>
       </c>
       <c r="S5">
-        <v>0.000534509416564279</v>
+        <v>0.002549895459463769</v>
       </c>
       <c r="T5">
-        <v>0.000534509416564279</v>
+        <v>0.002549895459463769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>6.7232932218</v>
+        <v>11.57795853111</v>
       </c>
       <c r="R6">
-        <v>60.5096389962</v>
+        <v>104.20162677999</v>
       </c>
       <c r="S6">
-        <v>0.0004322763468794123</v>
+        <v>0.001931637121881604</v>
       </c>
       <c r="T6">
-        <v>0.0004322763468794123</v>
+        <v>0.001931637121881604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>1125.265523974405</v>
+        <v>1040.417231546165</v>
       </c>
       <c r="R7">
-        <v>10127.38971576965</v>
+        <v>9363.755083915483</v>
       </c>
       <c r="S7">
-        <v>0.07234931661106025</v>
+        <v>0.1735805618321891</v>
       </c>
       <c r="T7">
-        <v>0.07234931661106027</v>
+        <v>0.1735805618321891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>468.871364349696</v>
       </c>
       <c r="R8">
-        <v>4219.842279147265</v>
+        <v>4219.842279147264</v>
       </c>
       <c r="S8">
-        <v>0.03014623843569167</v>
+        <v>0.07822530460197782</v>
       </c>
       <c r="T8">
-        <v>0.03014623843569169</v>
+        <v>0.07822530460197784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>39.03147423563301</v>
+        <v>96.766649389311</v>
       </c>
       <c r="R9">
-        <v>351.2832681206971</v>
+        <v>870.8998445037989</v>
       </c>
       <c r="S9">
-        <v>0.002509541461197814</v>
+        <v>0.01614430139978872</v>
       </c>
       <c r="T9">
-        <v>0.002509541461197815</v>
+        <v>0.01614430139978872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>45.227587634735</v>
+        <v>62.801457116167</v>
       </c>
       <c r="R10">
-        <v>407.048288712615</v>
+        <v>565.2131140455029</v>
       </c>
       <c r="S10">
-        <v>0.002907922608152655</v>
+        <v>0.01047763520208546</v>
       </c>
       <c r="T10">
-        <v>0.002907922608152656</v>
+        <v>0.01047763520208546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>36.57712241363401</v>
+        <v>47.574352675366</v>
       </c>
       <c r="R11">
-        <v>329.194101722706</v>
+        <v>428.169174078294</v>
       </c>
       <c r="S11">
-        <v>0.002351738104335371</v>
+        <v>0.007937183867976256</v>
       </c>
       <c r="T11">
-        <v>0.002351738104335371</v>
+        <v>0.007937183867976257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>3992.392451261247</v>
+        <v>1494.788794251944</v>
       </c>
       <c r="R12">
-        <v>35931.53206135123</v>
+        <v>13453.0991482675</v>
       </c>
       <c r="S12">
-        <v>0.2566921845003374</v>
+        <v>0.2493867564468534</v>
       </c>
       <c r="T12">
-        <v>0.2566921845003375</v>
+        <v>0.2493867564468534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>1663.534921989547</v>
+        <v>673.6371141546665</v>
       </c>
       <c r="R13">
-        <v>14971.81429790592</v>
+        <v>6062.734027392</v>
       </c>
       <c r="S13">
-        <v>0.1069575244245328</v>
+        <v>0.1123879009310633</v>
       </c>
       <c r="T13">
-        <v>0.1069575244245328</v>
+        <v>0.1123879009310633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>138.4819491754761</v>
+        <v>139.0266316038333</v>
       </c>
       <c r="R14">
-        <v>1246.337542579285</v>
+        <v>1251.2396844345</v>
       </c>
       <c r="S14">
-        <v>0.008903742425544323</v>
+        <v>0.02319484923136759</v>
       </c>
       <c r="T14">
-        <v>0.008903742425544325</v>
+        <v>0.02319484923136759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>160.4654862471194</v>
+        <v>90.22814262738888</v>
       </c>
       <c r="R15">
-        <v>1444.189376224075</v>
+        <v>812.0532836464999</v>
       </c>
       <c r="S15">
-        <v>0.01031718116506042</v>
+        <v>0.01505343357977833</v>
       </c>
       <c r="T15">
-        <v>0.01031718116506042</v>
+        <v>0.01505343357977834</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>129.77401715577</v>
+        <v>68.35104909522222</v>
       </c>
       <c r="R16">
-        <v>1167.96615440193</v>
+        <v>615.1594418569999</v>
       </c>
       <c r="S16">
-        <v>0.008343863075027906</v>
+        <v>0.01140351499766733</v>
       </c>
       <c r="T16">
-        <v>0.008343863075027907</v>
+        <v>0.01140351499766733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>287.3034183662994</v>
+        <v>147.740882640995</v>
       </c>
       <c r="R17">
-        <v>2585.730765296695</v>
+        <v>1329.667943768955</v>
       </c>
       <c r="S17">
-        <v>0.01847226768790269</v>
+        <v>0.0246487126864445</v>
       </c>
       <c r="T17">
-        <v>0.01847226768790269</v>
+        <v>0.0246487126864445</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>119.7124970788693</v>
+        <v>66.58047090508801</v>
       </c>
       <c r="R18">
-        <v>1077.412473709824</v>
+        <v>599.2242381457921</v>
       </c>
       <c r="S18">
-        <v>0.00769695433560332</v>
+        <v>0.01110811624061812</v>
       </c>
       <c r="T18">
-        <v>0.007696954335603324</v>
+        <v>0.01110811624061812</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>9.965537673425219</v>
+        <v>13.741016351433</v>
       </c>
       <c r="R19">
-        <v>89.68983906082698</v>
+        <v>123.669147162897</v>
       </c>
       <c r="S19">
-        <v>0.0006407375192546017</v>
+        <v>0.002292516181111716</v>
       </c>
       <c r="T19">
-        <v>0.0006407375192546018</v>
+        <v>0.002292516181111715</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>11.54753278677389</v>
+        <v>8.917905648001001</v>
       </c>
       <c r="R20">
-        <v>103.927795080965</v>
+        <v>80.26115083200901</v>
       </c>
       <c r="S20">
-        <v>0.000742452414889684</v>
+        <v>0.001487840671810115</v>
       </c>
       <c r="T20">
-        <v>0.0007424524148896842</v>
+        <v>0.001487840671810115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>9.338891203493997</v>
+        <v>6.755632877098002</v>
       </c>
       <c r="R21">
-        <v>84.05002083144599</v>
+        <v>60.80069589388201</v>
       </c>
       <c r="S21">
-        <v>0.0006004470785627669</v>
+        <v>0.001127092588226368</v>
       </c>
       <c r="T21">
-        <v>0.000600447078562767</v>
+        <v>0.001127092588226367</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>4593.325973547537</v>
+        <v>697.0372752631511</v>
       </c>
       <c r="R22">
-        <v>41339.93376192784</v>
+        <v>6273.335477368359</v>
       </c>
       <c r="S22">
-        <v>0.2953294027744124</v>
+        <v>0.1162919242296184</v>
       </c>
       <c r="T22">
-        <v>0.2953294027744124</v>
+        <v>0.1162919242296184</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>1913.929619485184</v>
+        <v>314.1247648979627</v>
       </c>
       <c r="R23">
-        <v>17225.36657536666</v>
+        <v>2827.122884081664</v>
       </c>
       <c r="S23">
-        <v>0.1230567337763467</v>
+        <v>0.05240777596057459</v>
       </c>
       <c r="T23">
-        <v>0.1230567337763467</v>
+        <v>0.05240777596057459</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>159.3262039693153</v>
+        <v>64.82972367386934</v>
       </c>
       <c r="R24">
-        <v>1433.935835723838</v>
+        <v>583.4675130648239</v>
       </c>
       <c r="S24">
-        <v>0.01024393063665616</v>
+        <v>0.01081602603026139</v>
       </c>
       <c r="T24">
-        <v>0.01024393063665617</v>
+        <v>0.01081602603026139</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>184.6186953900233</v>
+        <v>42.07442478221422</v>
       </c>
       <c r="R25">
-        <v>1661.56825851021</v>
+        <v>378.669823039928</v>
       </c>
       <c r="S25">
-        <v>0.01187011968332329</v>
+        <v>0.007019589902033323</v>
       </c>
       <c r="T25">
-        <v>0.0118701196833233</v>
+        <v>0.007019589902033323</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>149.307557052636</v>
+        <v>31.87288345077156</v>
       </c>
       <c r="R26">
-        <v>1343.768013473724</v>
+        <v>286.855951056944</v>
       </c>
       <c r="S26">
-        <v>0.009599778441155555</v>
+        <v>0.00531759072115226</v>
       </c>
       <c r="T26">
-        <v>0.009599778441155556</v>
+        <v>0.005317590721152259</v>
       </c>
     </row>
   </sheetData>
